--- a/analise_quartil.xlsx
+++ b/analise_quartil.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pai\Desktop\loterias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pai\Desktop\projeto_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50C34A-F7D9-4BA2-B185-B5A05FC65053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0156E4F-1082-44BD-9D21-2B6F195E4AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{72060AC1-E8C6-4BCC-884F-EC9FBF4716FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>wide</t>
   </si>
@@ -39,21 +39,6 @@
     <t>q5</t>
   </si>
   <si>
-    <t>1567 a 1593</t>
-  </si>
-  <si>
-    <t>1593 a 1619</t>
-  </si>
-  <si>
-    <t>1619 a 1645</t>
-  </si>
-  <si>
-    <t>1645 a 1671</t>
-  </si>
-  <si>
-    <t>1671 a 1697</t>
-  </si>
-  <si>
     <t>c3</t>
   </si>
   <si>
@@ -88,6 +73,24 @@
   </si>
   <si>
     <t>c14</t>
+  </si>
+  <si>
+    <t>1570 a 1596</t>
+  </si>
+  <si>
+    <t>1596 a 1622</t>
+  </si>
+  <si>
+    <t>1622 a 1648</t>
+  </si>
+  <si>
+    <t>1648 a 1674</t>
+  </si>
+  <si>
+    <t>1674 a 1700</t>
+  </si>
+  <si>
+    <t>c15</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC1C53C-C462-4EC0-A1F7-8F6D8AE6C3EE}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,12 +498,12 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>20</v>
       </c>
       <c r="B1" s="1">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -516,43 +519,46 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -563,10 +569,11 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <f>D1/5</f>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -574,7 +581,7 @@
         <v>1685</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -618,23 +625,16 @@
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="S3">
-        <f>AVERAGE(E3:R3)</f>
-        <v>2.3571428571428572</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25</v>
       </c>
       <c r="B4" s="1">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -678,15 +678,8 @@
       <c r="R4">
         <v>5</v>
       </c>
-      <c r="S4">
-        <f>AVERAGE(E4:R4)</f>
-        <v>3.1428571428571428</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>13</v>
       </c>
@@ -694,7 +687,7 @@
         <v>1670</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -738,23 +731,16 @@
       <c r="R5">
         <v>4</v>
       </c>
-      <c r="S5">
-        <f>AVERAGE(E5:R5)</f>
-        <v>3.7857142857142856</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -798,15 +784,8 @@
       <c r="R6">
         <v>2</v>
       </c>
-      <c r="S6">
-        <f>AVERAGE(E6:R6)</f>
-        <v>3.4285714285714284</v>
-      </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>14</v>
       </c>
@@ -814,7 +793,7 @@
         <v>1659</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -858,20 +837,13 @@
       <c r="R7">
         <v>3</v>
       </c>
-      <c r="S7">
-        <f>AVERAGE(E7:R7)</f>
-        <v>2.2142857142857144</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="E8">
         <f>J7+F6+L5+E4+N3</f>
@@ -879,23 +851,23 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
       <c r="B10" s="3">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -903,23 +875,23 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>22</v>
       </c>
       <c r="B12" s="3">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>19</v>
       </c>
@@ -927,33 +899,33 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>18</v>
       </c>
       <c r="B15" s="3">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>1619</v>
@@ -964,7 +936,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -976,11 +948,11 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
-        <v>1596</v>
+      <c r="B21" s="4">
+        <v>1595</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -996,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="4">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,13 +984,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="4">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>AVERAGE(B1:B25)</f>
-        <v>1632.6</v>
+        <v>1633.12</v>
       </c>
     </row>
   </sheetData>

--- a/analise_quartil.xlsx
+++ b/analise_quartil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pai\Desktop\projeto_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0156E4F-1082-44BD-9D21-2B6F195E4AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18817B0-E548-4036-90EC-D9953FCAA553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{72060AC1-E8C6-4BCC-884F-EC9FBF4716FD}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="1">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -563,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -625,6 +625,9 @@
       <c r="R3">
         <v>1</v>
       </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -678,6 +681,9 @@
       <c r="R4">
         <v>5</v>
       </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -731,13 +737,16 @@
       <c r="R5">
         <v>4</v>
       </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -783,6 +792,9 @@
       </c>
       <c r="R6">
         <v>2</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -837,6 +849,9 @@
       <c r="R7">
         <v>3</v>
       </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -856,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -880,7 +895,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="3">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -888,7 +903,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -912,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,7 +943,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -936,7 +951,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,7 +959,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,7 +967,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="4">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -960,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="4">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -968,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="4">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="4">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>AVERAGE(B1:B25)</f>
-        <v>1633.12</v>
+        <v>1633.72</v>
       </c>
     </row>
   </sheetData>

--- a/analise_quartil.xlsx
+++ b/analise_quartil.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pai\Desktop\projeto_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pai\Desktop\loterias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18817B0-E548-4036-90EC-D9953FCAA553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6469B08-8C50-4B14-947A-F69B26169104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{72060AC1-E8C6-4BCC-884F-EC9FBF4716FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>wide</t>
   </si>
@@ -75,22 +75,25 @@
     <t>c14</t>
   </si>
   <si>
-    <t>1570 a 1596</t>
-  </si>
-  <si>
-    <t>1596 a 1622</t>
-  </si>
-  <si>
-    <t>1622 a 1648</t>
-  </si>
-  <si>
-    <t>1648 a 1674</t>
-  </si>
-  <si>
-    <t>1674 a 1700</t>
-  </si>
-  <si>
     <t>c15</t>
+  </si>
+  <si>
+    <t>c16</t>
+  </si>
+  <si>
+    <t>1598 a 1624</t>
+  </si>
+  <si>
+    <t>1624 a 1650</t>
+  </si>
+  <si>
+    <t>1650 a 1676</t>
+  </si>
+  <si>
+    <t>1676 a 1702</t>
+  </si>
+  <si>
+    <t>1572 a 1598</t>
   </si>
 </sst>
 </file>
@@ -487,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC1C53C-C462-4EC0-A1F7-8F6D8AE6C3EE}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,12 +501,12 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>20</v>
       </c>
       <c r="B1" s="1">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -555,10 +558,13 @@
         <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -573,7 +579,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -581,7 +587,7 @@
         <v>1685</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -628,16 +634,23 @@
       <c r="S3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <f>AVERAGE(E3:T3)</f>
+        <v>2.3125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25</v>
       </c>
       <c r="B4" s="1">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -684,16 +697,23 @@
       <c r="S4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U6" si="0">AVERAGE(E4:T4)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -740,16 +760,23 @@
       <c r="S5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -796,8 +823,15 @@
       <c r="S6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>14</v>
       </c>
@@ -805,7 +839,7 @@
         <v>1659</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -852,13 +886,20 @@
       <c r="S7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <f>AVERAGE(E7:T7)</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="E8">
         <f>J7+F6+L5+E4+N3</f>
@@ -866,15 +907,15 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -882,7 +923,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -890,39 +931,39 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>22</v>
       </c>
       <c r="B12" s="3">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>19</v>
       </c>
       <c r="B14" s="3">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>18</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>1624</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -930,15 +971,15 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -946,66 +987,86 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1613</v>
+      </c>
+      <c r="D20">
+        <f>1676+26</f>
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>23</v>
       </c>
       <c r="B21" s="4">
         <v>1596</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>1650+26</f>
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>7</v>
       </c>
       <c r="B22" s="4">
         <v>1592</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>1624+26</f>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>6</v>
       </c>
       <c r="B23" s="4">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1583</v>
+      </c>
+      <c r="D23">
+        <f>1598+26</f>
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>16</v>
       </c>
       <c r="B24" s="4">
         <v>1575</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>1572+26</f>
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>8</v>
       </c>
       <c r="B25" s="4">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>AVERAGE(B1:B25)</f>
-        <v>1633.72</v>
+        <v>1634.28</v>
       </c>
     </row>
   </sheetData>

--- a/analise_quartil.xlsx
+++ b/analise_quartil.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pai\Desktop\loterias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pai\Desktop\projeto_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6469B08-8C50-4B14-947A-F69B26169104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E582F559-3329-4F65-A755-01FCA6B0B5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{72060AC1-E8C6-4BCC-884F-EC9FBF4716FD}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,10 +901,6 @@
       <c r="B8" s="2">
         <v>1656</v>
       </c>
-      <c r="E8">
-        <f>J7+F6+L5+E4+N3</f>
-        <v>20</v>
-      </c>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">

--- a/analise_quartil.xlsx
+++ b/analise_quartil.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pai\Desktop\projeto_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pai\Desktop\loterias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E582F559-3329-4F65-A755-01FCA6B0B5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F19ED4-5207-494D-B3FC-3E93961A470F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{72060AC1-E8C6-4BCC-884F-EC9FBF4716FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>wide</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>1572 a 1598</t>
+  </si>
+  <si>
+    <t>c17</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC1C53C-C462-4EC0-A1F7-8F6D8AE6C3EE}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +504,7 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>20</v>
       </c>
@@ -513,7 +516,7 @@
       </c>
       <c r="D1">
         <f>B1-B25</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -564,27 +567,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2">
         <f>D1/5</f>
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -637,12 +640,8 @@
       <c r="T3">
         <v>2</v>
       </c>
-      <c r="U3">
-        <f>AVERAGE(E3:T3)</f>
-        <v>2.3125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25</v>
       </c>
@@ -700,12 +699,8 @@
       <c r="T4">
         <v>5</v>
       </c>
-      <c r="U4">
-        <f t="shared" ref="U4:U6" si="0">AVERAGE(E4:T4)</f>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>13</v>
       </c>
@@ -763,17 +758,13 @@
       <c r="T5">
         <v>3</v>
       </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>3.625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -826,17 +817,13 @@
       <c r="T6">
         <v>3</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -889,61 +876,75 @@
       <c r="T7">
         <v>2</v>
       </c>
-      <c r="U7">
-        <f>AVERAGE(E7:T7)</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>1656</v>
+        <v>1657</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="2">
         <v>1654</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
       <c r="B10" s="3">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1639</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1632</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>22</v>
       </c>
       <c r="B12" s="3">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1633</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1631</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>19</v>
       </c>
@@ -951,7 +952,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18</v>
       </c>
@@ -959,12 +960,12 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -972,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="D20">
         <f>1676+26</f>
@@ -1008,7 +1009,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="4">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D21">
         <f>1650+26</f>
@@ -1020,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="4">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="D22">
         <f>1624+26</f>
@@ -1056,13 +1057,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="4">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>AVERAGE(B1:B25)</f>
-        <v>1634.28</v>
+        <v>1634.92</v>
       </c>
     </row>
   </sheetData>
